--- a/Dados_Viol_rel_cria_adoles.xlsx
+++ b/Dados_Viol_rel_cria_adoles.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -2076,25 +2076,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -2147,17 +2135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
@@ -2198,20 +2180,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2236,6 +2206,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2520,204 +2496,206 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="19"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="D1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>16</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>7</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>608</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>488</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>219</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>1315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>107</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>56</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>26</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>501</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>432</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>193</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>1126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>2191</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>1936</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>878</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>5005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>279</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>199</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>101</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>1912</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>1737</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>777</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>4426</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>2815</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>2433</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>1103</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>6351</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2727,1288 +2705,1288 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="23"/>
+    <col min="2" max="5" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="12">
         <v>2021</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>6</v>
       </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>34</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>34</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>42</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>58</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>28</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>12</v>
       </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>21</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>32</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>14</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>20</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>7</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>16</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>12</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>4</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>42</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>58</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>35</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>2</v>
       </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="5">
         <v>4</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>148</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>133</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>48</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>14</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>12</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>25</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>41</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>11</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>18</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>11</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="5">
         <v>16</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>13</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="21">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="5">
         <v>3</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="17">
         <v>663</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>308</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>82</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>1053</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="5">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <v>4</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="5">
         <v>416</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>428</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="5">
         <v>97</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="5">
         <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="21">
-        <v>0</v>
-      </c>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
         <v>111</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>2</v>
       </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="17">
         <v>6</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>5</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>7</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="5">
         <v>24</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>29</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <v>6</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="17">
         <v>7</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>18</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>13</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="17">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="5">
         <v>9</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="5">
         <v>30</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="5">
         <v>7</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="17">
         <v>36</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>25</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>27</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="17">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="5">
         <v>15</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="5">
         <v>10</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="5">
         <v>6</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="21">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21">
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="5">
         <v>8</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="5">
         <v>16</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="5">
         <v>3</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="17">
         <v>8</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>6</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>2</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="17">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="5">
         <v>8</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="21">
-        <v>0</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="B46" s="17">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17">
         <v>4</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="5">
         <v>10</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="5">
         <v>7</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="5">
         <v>8</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="17">
         <v>3</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="21">
-        <v>1</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="5">
         <v>6</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="5">
         <v>7</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="17">
         <v>51</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>36</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="17">
         <v>39</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="17">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="5">
         <v>6</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="5">
         <v>6</v>
       </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="17">
         <v>68</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <v>81</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>47</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="17">
         <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="5">
         <v>22</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="5">
         <v>22</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="5">
         <v>8</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="17">
         <v>40</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <v>55</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>26</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="17">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="5">
         <v>71</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="5">
         <v>31</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="5">
         <v>9</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="5">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="17">
         <v>31</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <v>41</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <v>23</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="5">
         <v>18</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="5">
         <v>11</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="5">
         <v>2</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="17">
         <v>43</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <v>36</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="17">
         <v>16</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="5">
         <v>23</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="5">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="5">
         <v>10</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="17">
         <v>12</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <v>9</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>2</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="5">
         <v>4</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="5">
         <v>2</v>
       </c>
-      <c r="D61" s="9">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="17">
         <v>19</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <v>11</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="17">
         <v>7</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="5">
         <v>143</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="5">
         <v>90</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="5">
         <v>32</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="5">
         <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="21">
-        <v>0</v>
-      </c>
-      <c r="C64" s="21">
-        <v>1</v>
-      </c>
-      <c r="D64" s="21">
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17">
         <v>2</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="5">
         <v>4</v>
       </c>
-      <c r="C65" s="9">
-        <v>0</v>
-      </c>
-      <c r="D65" s="9">
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="17">
         <v>5</v>
       </c>
-      <c r="C66" s="21">
-        <v>0</v>
-      </c>
-      <c r="D66" s="21">
-        <v>0</v>
-      </c>
-      <c r="E66" s="21">
+      <c r="C66" s="17">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="5">
         <v>193</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="5">
         <v>172</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="5">
         <v>93</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="5">
         <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="21">
-        <v>1</v>
-      </c>
-      <c r="C68" s="21">
+      <c r="B68" s="17">
+        <v>1</v>
+      </c>
+      <c r="C68" s="17">
         <v>3</v>
       </c>
-      <c r="D68" s="21">
-        <v>0</v>
-      </c>
-      <c r="E68" s="21">
+      <c r="D68" s="17">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="5">
         <v>7</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="5">
         <v>11</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="5">
         <v>2</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="17">
         <v>172</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <v>241</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="17">
         <v>111</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="17">
         <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="5">
         <v>8</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="5">
         <v>4</v>
       </c>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="17">
         <v>115</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <v>94</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="17">
         <v>36</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="17">
         <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="5">
         <v>13</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="5">
         <v>26</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="5">
         <v>13</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="17">
         <v>2</v>
       </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
-        <v>1</v>
-      </c>
-      <c r="E74" s="21">
+      <c r="C74" s="17">
+        <v>0</v>
+      </c>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="9">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9">
-        <v>0</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4016,16 +3994,16 @@
       <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="31">
         <v>24</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="31">
         <v>40</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="31">
         <v>26</v>
       </c>
-      <c r="E76" s="37">
+      <c r="E76" s="31">
         <v>90</v>
       </c>
     </row>
@@ -4039,222 +4017,224 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.7265625" style="23"/>
+    <col min="2" max="2" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="19"/>
+    <col min="4" max="4" width="10.81640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="27"/>
+      <c r="D1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <v>741</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="20">
         <v>1317</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="20">
         <v>844</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="20">
         <v>2902</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>401</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>570</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>407</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>1378</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>340</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>747</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>437</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>1524</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="32">
         <v>4053</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="32">
         <v>2325</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="32">
         <v>1013</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>7391</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>234</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>1439</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>668</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>4447</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>1713</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>886</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>345</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>2944</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="32">
         <v>6796</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>7973</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>3588</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>18357</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>3931</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>3403</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>1374</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>8708</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>2743</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>2645</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>951</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>6339</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>122</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>1925</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>1263</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>1159</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>11615</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>5445</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>2865</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4264,1375 +4244,1375 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="6.6328125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.36328125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="37"/>
+    <col min="2" max="2" width="6.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="12">
         <v>2021</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>78</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <v>67</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>28</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>227</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>190</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>88</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>87</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>57</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>14</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>229</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>266</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>99</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>55</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>37</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>20</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>57</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>69</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>86</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>100</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>33</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>12</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>109</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>90</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>60</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>268</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>235</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>94</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>117</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>101</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>43</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>173</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>119</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>43</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>77</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>67</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>47</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>168</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>137</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>60</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>20</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>348</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>378</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>180</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>906</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>40</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>41</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>18</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>48</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>58</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>17</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="5">
         <v>54</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>74</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>23</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>569</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>510</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>214</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>1293</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>47</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>28</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>168</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>151</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>70</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>218</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>254</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>167</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5">
         <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="21">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="5">
         <v>123</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>114</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <v>39</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>178</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>231</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>129</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
         <v>6</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <v>6</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="17">
         <v>20</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>38</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>22</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="5">
         <v>1226</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>980</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <v>359</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>2565</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="17">
         <v>52</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>63</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <v>26</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="17">
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="5">
         <v>1018</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>934</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="5">
         <v>472</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="5">
         <v>2424</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="17">
         <v>92</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>113</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>45</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="5">
         <v>46</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>72</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="5">
         <v>29</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="5">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="17">
         <v>174</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>142</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>59</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="17">
         <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="5">
         <v>106</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>168</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <v>102</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5">
         <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="17">
         <v>47</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>58</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>42</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="17">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="5">
         <v>89</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="5">
         <v>116</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="5">
         <v>33</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="5">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="17">
         <v>156</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>129</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>65</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="17">
         <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="5">
         <v>19</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="5">
         <v>12</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="5">
         <v>7</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="17">
         <v>126</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>72</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>38</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="17">
         <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="5">
         <v>117</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="5">
         <v>83</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="5">
         <v>44</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="17">
         <v>21</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>20</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>12</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="5">
         <v>43</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="5">
         <v>48</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="5">
         <v>36</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="17">
         <v>5</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>5</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>3</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="5">
         <v>39</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="5">
         <v>51</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="5">
         <v>23</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="5">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="17">
         <v>69</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="17">
         <v>59</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="17">
         <v>34</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="17">
         <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="5">
         <v>54</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>50</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="5">
         <v>23</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="17">
         <v>63</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>166</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="17">
         <v>2</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="17">
         <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="5">
         <v>218</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="5">
         <v>261</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="5">
         <v>141</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="5">
         <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="17">
         <v>55</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <v>40</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>15</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="17">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="5">
         <v>78</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="5">
         <v>73</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="5">
         <v>31</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="5">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="17">
         <v>128</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <v>119</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>55</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="17">
         <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="5">
         <v>307</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="5">
         <v>456</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="5">
         <v>228</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="5">
         <v>991</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="17">
         <v>342</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <v>309</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <v>148</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="17">
         <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="5">
         <v>62</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="5">
         <v>62</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="5">
         <v>25</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="17">
         <v>197</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <v>175</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="17">
         <v>75</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="17">
         <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
-        <v>1</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="17">
         <v>259</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <v>220</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>89</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="17">
         <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="5">
         <v>194</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="5">
         <v>150</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="5">
         <v>65</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="5">
         <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="17">
         <v>86</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <v>71</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="17">
         <v>25</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="17">
         <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="5">
         <v>30</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="5">
         <v>24</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="5">
         <v>12</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="5">
         <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="17">
         <v>101</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="17">
         <v>93</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="17">
         <v>46</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="17">
         <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="5">
         <v>110</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="5">
         <v>95</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="5">
         <v>28</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="5">
         <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="17">
         <v>19</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="17">
         <v>7</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="17">
         <v>6</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="5">
         <v>36</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="5">
         <v>29</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="5">
         <v>4</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="17">
         <v>7</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="17">
         <v>2</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="17">
         <v>3</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="5">
         <v>32</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="5">
         <v>25</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="5">
         <v>21</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="17">
         <v>709</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <v>937</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="17">
         <v>502</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="17">
         <v>2148</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="5">
         <v>18</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="5">
         <v>8</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="5">
         <v>3</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="17">
         <v>101</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <v>49</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="17">
         <v>27</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="17">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="5">
         <v>440</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="5">
         <v>638</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="5">
         <v>342</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="5">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="17">
         <v>78</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="17">
         <v>54</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="17">
         <v>24</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="17">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="5">
         <v>409</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="5">
         <v>328</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="5">
         <v>174</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="5">
         <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="17">
         <v>123</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="17">
         <v>190</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="17">
         <v>93</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="17">
         <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="9">
-        <v>0</v>
-      </c>
-      <c r="C77" s="9">
-        <v>1</v>
-      </c>
-      <c r="D77" s="9">
-        <v>0</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="17">
         <v>35</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="17">
         <v>29</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="17">
         <v>23</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="17">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="5">
         <v>37</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="5">
         <v>39</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="5">
         <v>15</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="35">
+      <c r="B80" s="29">
         <v>265</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="29">
         <v>322</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="29">
         <v>179</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="29">
         <v>766</v>
       </c>
     </row>
@@ -5646,103 +5626,104 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="12">
         <v>2021</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="36">
         <v>9</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="36">
         <v>8</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="36">
         <v>2</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="36">
         <v>19</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="29">
         <v>20</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="29">
         <v>29</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="29">
         <v>7</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="29">
         <v>56</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="12">
         <v>31</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="12">
         <v>39</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="12">
         <v>11</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="12">
         <v>81</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5760,70 +5741,70 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="37">
         <v>2020</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="12">
         <v>2021</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49">
-        <v>0</v>
-      </c>
-      <c r="C2" s="50">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49">
+      <c r="B2" s="39">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
         <v>2</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>31</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="42">
         <v>38</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="12">
         <v>31</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="35">
         <v>39</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>11</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>81</v>
       </c>
     </row>
@@ -5836,574 +5817,574 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="23"/>
+    <col min="2" max="5" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="12">
         <v>2019</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="12">
         <v>2021</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <v>5</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>4</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>5</v>
       </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
         <v>3</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
         <v>2</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="21">
-        <v>0</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="21">
-        <v>0</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
         <v>2</v>
       </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21">
-        <v>0</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21">
-        <v>0</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="21">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="21">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="21">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="9">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="21">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="9">
-        <v>0</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="21">
-        <v>0</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13">
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Dados_Viol_rel_cria_adoles.xlsx
+++ b/Dados_Viol_rel_cria_adoles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
   <si>
     <r>
       <rPr>
@@ -1957,6 +1957,15 @@
       </rPr>
       <t>GÊNERO</t>
     </r>
+  </si>
+  <si>
+    <t>Ano2019</t>
+  </si>
+  <si>
+    <t>Ano2020</t>
+  </si>
+  <si>
+    <t>Ano2021</t>
   </si>
 </sst>
 </file>
@@ -2495,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2705,8 +2714,8 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2719,14 +2728,14 @@
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="12">
-        <v>2021</v>
+      <c r="B1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>7</v>
@@ -5817,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5831,14 +5840,14 @@
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="12">
-        <v>2021</v>
+      <c r="B1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>7</v>

--- a/Dados_Viol_rel_cria_adoles.xlsx
+++ b/Dados_Viol_rel_cria_adoles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <r>
       <rPr>
@@ -2715,7 +2715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4252,9 +4252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4269,14 +4269,14 @@
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="12">
-        <v>2021</v>
+      <c r="B1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>7</v>
@@ -5826,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Dados_Viol_rel_cria_adoles.xlsx
+++ b/Dados_Viol_rel_cria_adoles.xlsx
@@ -4254,7 +4254,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Dados_Viol_rel_cria_adoles.xlsx
+++ b/Dados_Viol_rel_cria_adoles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -1966,6 +1966,9 @@
   </si>
   <si>
     <t>Ano2021</t>
+  </si>
+  <si>
+    <t>Parc_2021</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2221,6 +2224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2504,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2527,8 +2533,8 @@
       <c r="C1" s="12">
         <v>2020</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>1</v>
+      <c r="D1" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>1</v>
@@ -4252,9 +4258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5635,7 +5641,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
